--- a/DBteam_project/Data_collection_progress.xlsx
+++ b/DBteam_project/Data_collection_progress.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Studying\DB\Crawling_01\DBteam_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F1D46C0-4961-473C-9F87-3625C22F1AB1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30CB55F8-9221-4801-904A-62B7E577E34D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1410" yWindow="2190" windowWidth="19020" windowHeight="12825" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4770" yWindow="2820" windowWidth="20460" windowHeight="12660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,11 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="9">
-  <si>
-    <t>Station</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="6">
   <si>
     <t>Place</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -43,23 +39,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Gundae</t>
+    <t>x</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Yeouido</t>
+    <t>Line</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Chunho</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>o</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>x</t>
+    <t>number</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -103,13 +91,47 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -385,72 +407,175 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="D2:D10 B2:B10 F2:F10">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+      <formula>"o"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>"x"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/DBteam_project/Data_collection_progress.xlsx
+++ b/DBteam_project/Data_collection_progress.xlsx
@@ -8,24 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Studying\DB\Crawling_01\DBteam_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30CB55F8-9221-4801-904A-62B7E577E34D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F67002EE-5D25-432E-B621-F1A22B83B1A1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4770" yWindow="2820" windowWidth="20460" windowHeight="12660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4050" yWindow="2085" windowWidth="20460" windowHeight="12660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="11">
   <si>
     <t>Place</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -48,6 +54,26 @@
   </si>
   <si>
     <t>number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CTGR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>picture</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SUM</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -91,16 +117,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -118,16 +150,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -407,173 +429,260 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="2">
+        <v>11309</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" s="2"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J5" s="2"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J7" s="2"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" t="s">
+        <v>6</v>
+      </c>
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="1">
+        <f>8539-2350</f>
+        <v>6189</v>
+      </c>
+      <c r="H9" t="s">
+        <v>6</v>
+      </c>
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="1">
+        <v>2350</v>
+      </c>
+      <c r="H10" t="s">
+        <v>6</v>
+      </c>
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" t="s">
+        <v>3</v>
+      </c>
+      <c r="H11" t="s">
+        <v>6</v>
+      </c>
+      <c r="J11" s="2"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12">
+        <f>SUM(D3:D11)</f>
         <v>0</v>
       </c>
-      <c r="C1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="G12">
+        <f>SUM(G3:G11)</f>
+        <v>8539</v>
+      </c>
+      <c r="J12">
+        <f>SUM(J3:J11)</f>
+        <v>11309</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="D16" t="s">
         <v>2</v>
       </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" t="s">
-        <v>3</v>
-      </c>
-      <c r="F7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8">
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="1"/>
-      <c r="F8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="1"/>
-      <c r="F9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" t="s">
-        <v>3</v>
-      </c>
-      <c r="F10" t="s">
-        <v>3</v>
+      <c r="C17">
+        <v>24</v>
+      </c>
+      <c r="D17">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="J3:J11"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="D2:D10 B2:B10 F2:F10">
+  <conditionalFormatting sqref="E3:E11 B3:B11 H3:H11">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>"x"</formula>
+    </cfRule>
     <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"o"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
-      <formula>"x"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DBteam_project/Data_collection_progress.xlsx
+++ b/DBteam_project/Data_collection_progress.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Studying\DB\Crawling_01\DBteam_project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\Crawling_01\DBteam_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F67002EE-5D25-432E-B621-F1A22B83B1A1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4E39F6D-392B-48F5-A289-3AEA336B10C0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4050" yWindow="2085" windowWidth="20460" windowHeight="12660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21585" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -432,7 +432,7 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+      <selection activeCell="J12" sqref="A1:J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -491,7 +491,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>6</v>
+      </c>
+      <c r="D3" s="2">
+        <v>3798</v>
       </c>
       <c r="E3" t="s">
         <v>3</v>
@@ -508,8 +511,9 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="D4" s="2"/>
       <c r="E4" t="s">
         <v>3</v>
       </c>
@@ -523,8 +527,9 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="D5" s="2"/>
       <c r="E5" t="s">
         <v>3</v>
       </c>
@@ -538,8 +543,9 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="D6" s="2"/>
       <c r="E6" t="s">
         <v>3</v>
       </c>
@@ -553,8 +559,9 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="D7" s="2"/>
       <c r="E7" t="s">
         <v>3</v>
       </c>
@@ -568,8 +575,9 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="D8" s="2"/>
       <c r="E8" t="s">
         <v>3</v>
       </c>
@@ -583,8 +591,9 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="D9" s="2"/>
       <c r="E9" t="s">
         <v>6</v>
       </c>
@@ -602,8 +611,9 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>3</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="D10" s="2"/>
       <c r="E10" t="s">
         <v>6</v>
       </c>
@@ -620,8 +630,9 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>3</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="D11" s="2"/>
       <c r="E11" t="s">
         <v>3</v>
       </c>
@@ -636,7 +647,7 @@
       </c>
       <c r="D12">
         <f>SUM(D3:D11)</f>
-        <v>0</v>
+        <v>3798</v>
       </c>
       <c r="G12">
         <f>SUM(G3:G11)</f>
@@ -670,14 +681,15 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="J3:J11"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="H1:J1"/>
+    <mergeCell ref="D3:D11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="E3:E11 B3:B11 H3:H11">
+  <conditionalFormatting sqref="E3:E11 H3:H11 B3:B11">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"x"</formula>
     </cfRule>
